--- a/ResultadoEleicoesDistritos/PORTO_PÓVOA DE VARZIM.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_PÓVOA DE VARZIM.xlsx
@@ -597,64 +597,64 @@
         <v>18219</v>
       </c>
       <c r="H2" t="n">
-        <v>653</v>
+        <v>697</v>
       </c>
       <c r="I2" t="n">
-        <v>1804</v>
+        <v>1859</v>
       </c>
       <c r="J2" t="n">
-        <v>7457</v>
+        <v>7458</v>
       </c>
       <c r="K2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L2" t="n">
-        <v>2080</v>
+        <v>2153</v>
       </c>
       <c r="M2" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="N2" t="n">
-        <v>1300</v>
+        <v>1316</v>
       </c>
       <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>17</v>
+      </c>
+      <c r="R2" t="n">
+        <v>123</v>
+      </c>
+      <c r="S2" t="n">
+        <v>799</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1281</v>
+      </c>
+      <c r="U2" t="n">
+        <v>100</v>
+      </c>
+      <c r="V2" t="n">
+        <v>11632</v>
+      </c>
+      <c r="W2" t="n">
         <v>2</v>
       </c>
-      <c r="P2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>16</v>
-      </c>
-      <c r="R2" t="n">
-        <v>111</v>
-      </c>
-      <c r="S2" t="n">
-        <v>821</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1301</v>
-      </c>
-      <c r="U2" t="n">
-        <v>101</v>
-      </c>
-      <c r="V2" t="n">
-        <v>11636</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3</v>
-      </c>
       <c r="X2" t="n">
-        <v>11728</v>
+        <v>11570</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
